--- a/data/Mental_disorders.xlsx
+++ b/data/Mental_disorders.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\HUCA LABORATORIO\1. Proyectos Tesis Doctoral\Mental disorders\STRs\Draft\Molecular Psychiatric\Mental-disorders-STRs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA93206A-339B-4D7F-82CA-A25CC4851612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E4AE86-13F3-441F-BDE1-F5DE3C45B362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2278" uniqueCount="597">
   <si>
     <t>BP001</t>
   </si>
@@ -1887,6 +1887,9 @@
   </si>
   <si>
     <t>9</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -2198,7 +2201,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H62" sqref="H62"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2219,7 +2222,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>596</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>567</v>
       </c>
@@ -5200,7 +5205,7 @@
         <v>46</v>
       </c>
       <c r="H50" s="3">
-        <f t="shared" ref="H49:H51" si="4">G50-E50</f>
+        <f t="shared" ref="H50:H51" si="4">G50-E50</f>
         <v>16</v>
       </c>
       <c r="I50" s="3">
@@ -21546,7 +21551,7 @@
         <v>43</v>
       </c>
       <c r="H317" s="3">
-        <f t="shared" ref="H317:H330" si="18">G317-E317</f>
+        <f t="shared" ref="H317:H329" si="18">G317-E317</f>
         <v>16</v>
       </c>
       <c r="I317" s="4">
@@ -26557,7 +26562,7 @@
         <v>48</v>
       </c>
       <c r="H397" s="3">
-        <f t="shared" ref="H396:H459" si="22">G397-E397</f>
+        <f t="shared" ref="H397:H459" si="22">G397-E397</f>
         <v>8</v>
       </c>
       <c r="I397" s="6">
